--- a/ute/ui_config_patch/AB281K/defaultLanguage/input.xlsx
+++ b/ute/ui_config_patch/AB281K/defaultLanguage/input.xlsx
@@ -15105,7 +15105,7 @@
 1. Peranti ini menyokong julat pengukuran 70%-100%
 2. Sila pastikan jam tangan itu dipakai satu jari dari tulang pergelangan tangan, tidak terlalu rendah, dan ikat tali dengan ketat.
 3. Semasa proses pengukuran, sila cuba untuk kekal pegun dan pastikan dail menghadap ke atas.
-4. Faktor-faktor seperti kedua-dua belah tangan terpakai, bergoyang, lengan tidak betul. rambut, tatu atau berada dalam persekitaran yang sejuk boleh menjejaskan ketepatan pengukuran 
+4. Faktor-faktor seperti kedua-dua belah tangan terpakai,bergoyang,lengan tidak betul. rambut,tatu atau berada dalam persekitaran yang sejuk boleh menjejaskan ketepatan pengukuran.
 5. Keputusan pengukuran adalah untuk rujukan sahaja dan tidak boleh digunakan sebagai asas diagnostik perubatan.</t>
   </si>
   <si>
@@ -26323,13 +26323,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -26591,11 +26584,11 @@
   <dimension ref="A1:BA659"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F270" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="AX240" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C276" sqref="C276"/>
+      <selection pane="bottomRight" activeCell="AX243" sqref="AX243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
